--- a/xlsx/维基学院_intext.xlsx
+++ b/xlsx/维基学院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>维基学院</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Wikiversity</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_维基学院</t>
+    <t>政策_政策_维基百科_维基学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Alexa_Internet</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>捷克語</t>
+    <t>捷克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
@@ -143,33 +143,30 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>希臘語</t>
+    <t>希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%BC%8F%E8%AA%B2%E7%A8%8B%E7%B6%B2%E9%A0%81</t>
   </si>
   <si>
-    <t>開放式課程網頁</t>
+    <t>开放式课程网页</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
@@ -197,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/</t>
@@ -215,25 +209,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
+    <t>维基物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%95%B0%E6%8D%AE</t>
@@ -245,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MediaWiki</t>
@@ -263,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1321,7 @@
         <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1356,10 +1347,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1385,10 +1376,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1414,10 +1405,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1443,10 +1434,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>9</v>
@@ -1472,10 +1463,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1501,10 +1492,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1530,10 +1521,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>15</v>
@@ -1559,10 +1550,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1588,10 +1579,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1617,10 +1608,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1646,10 +1637,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1675,10 +1666,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -1704,10 +1695,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1733,10 +1724,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1762,10 +1753,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1791,10 +1782,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
